--- a/jpcore-r4b/feature/swg45-add_chemotherapy_regimen/StructureDefinition-jp-activitydefinition-chemotherapyregimen-oral.xlsx
+++ b/jpcore-r4b/feature/swg45-add_chemotherapy_regimen/StructureDefinition-jp-activitydefinition-chemotherapyregimen-oral.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -262,7 +262,10 @@
 </t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>化学療法レジメンの内服薬剤投与に関する定義情報</t>
+  </si>
+  <si>
+    <t>化学療法の1つのRP内における、抗がん剤（内服薬）、支持療法（制吐剤など）の組み合わせと、基準投与量、用法などを定義した情報</t>
   </si>
   <si>
     <t>cnl-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.exists() implies name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}
@@ -1990,7 +1993,7 @@
         <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2053,16 +2056,16 @@
         <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>78</v>
@@ -2070,10 +2073,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2084,7 +2087,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>78</v>
@@ -2093,19 +2096,19 @@
         <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2155,13 +2158,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -2184,10 +2187,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2198,7 +2201,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>78</v>
@@ -2207,16 +2210,16 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2267,19 +2270,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -2296,10 +2299,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2310,28 +2313,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2381,19 +2384,19 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
@@ -2410,10 +2413,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2424,7 +2427,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -2436,16 +2439,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2471,13 +2474,13 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>78</v>
@@ -2495,19 +2498,19 @@
         <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -2524,21 +2527,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -2550,16 +2553,16 @@
         <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2609,25 +2612,25 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2638,14 +2641,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2664,16 +2667,16 @@
         <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2723,7 +2726,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2735,13 +2738,13 @@
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -2752,14 +2755,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2778,16 +2781,16 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2837,7 +2840,7 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2849,13 +2852,13 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2866,14 +2869,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2886,25 +2889,25 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>78</v>
@@ -2953,7 +2956,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2965,13 +2968,13 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -2982,10 +2985,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2996,7 +2999,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -3005,22 +3008,22 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -3069,28 +3072,28 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>78</v>
@@ -3098,10 +3101,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3121,22 +3124,22 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>78</v>
@@ -3185,7 +3188,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3197,27 +3200,27 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3228,7 +3231,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -3237,19 +3240,19 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3299,28 +3302,28 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3328,10 +3331,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3342,7 +3345,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3351,22 +3354,22 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3415,25 +3418,25 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
@@ -3444,10 +3447,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3458,7 +3461,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3467,19 +3470,19 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3529,25 +3532,25 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3558,10 +3561,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3572,7 +3575,7 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -3584,13 +3587,13 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3641,25 +3644,25 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3670,10 +3673,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3681,31 +3684,31 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3731,13 +3734,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3755,28 +3758,28 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -3784,10 +3787,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3798,7 +3801,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3807,22 +3810,22 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3871,28 +3874,28 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -3900,10 +3903,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3914,7 +3917,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3926,23 +3929,23 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>78</v>
@@ -3963,13 +3966,13 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -3987,25 +3990,25 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -4016,21 +4019,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -4039,19 +4042,19 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4101,28 +4104,28 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4130,10 +4133,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4144,7 +4147,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -4153,22 +4156,22 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4217,28 +4220,28 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4246,10 +4249,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4269,19 +4272,19 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4331,7 +4334,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4343,13 +4346,13 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
@@ -4360,10 +4363,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4374,7 +4377,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4383,19 +4386,19 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4445,25 +4448,25 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4474,10 +4477,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4497,22 +4500,22 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4561,7 +4564,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4573,13 +4576,13 @@
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4590,10 +4593,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4613,19 +4616,19 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4651,13 +4654,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4675,7 +4678,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4687,13 +4690,13 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4704,10 +4707,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4718,7 +4721,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4730,16 +4733,16 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4789,39 +4792,39 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4832,7 +4835,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -4844,13 +4847,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4901,25 +4904,25 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4930,21 +4933,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4956,17 +4959,17 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5015,39 +5018,39 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5058,7 +5061,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5070,16 +5073,16 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5129,39 +5132,39 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5172,7 +5175,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5184,19 +5187,19 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5245,39 +5248,39 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5288,7 +5291,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5297,22 +5300,22 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5361,39 +5364,39 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5416,17 +5419,17 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5451,13 +5454,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5475,7 +5478,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5487,13 +5490,13 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5504,10 +5507,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5530,13 +5533,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5587,7 +5590,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5599,13 +5602,13 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5616,10 +5619,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5642,13 +5645,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5699,7 +5702,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5711,13 +5714,13 @@
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5728,10 +5731,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5754,13 +5757,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5811,7 +5814,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5823,13 +5826,13 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5840,10 +5843,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5866,13 +5869,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5923,7 +5926,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5935,13 +5938,13 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5952,10 +5955,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5978,19 +5981,19 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6039,7 +6042,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6051,13 +6054,13 @@
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6068,10 +6071,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6094,13 +6097,13 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6151,7 +6154,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6163,13 +6166,13 @@
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6180,10 +6183,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6194,7 +6197,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6203,19 +6206,19 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6241,13 +6244,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6265,25 +6268,25 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6294,10 +6297,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6308,7 +6311,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6320,17 +6323,17 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6379,25 +6382,25 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6408,10 +6411,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6422,7 +6425,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6431,22 +6434,22 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6471,13 +6474,13 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -6495,25 +6498,25 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6524,10 +6527,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6538,7 +6541,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6550,13 +6553,13 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6583,13 +6586,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6607,25 +6610,25 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6636,10 +6639,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6650,7 +6653,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6662,13 +6665,13 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6695,13 +6698,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6719,25 +6722,25 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6748,10 +6751,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6762,28 +6765,28 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6833,25 +6836,25 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6862,10 +6865,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6876,7 +6879,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6888,17 +6891,17 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6947,25 +6950,25 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -6976,21 +6979,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7002,19 +7005,19 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7063,25 +7066,25 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7092,10 +7095,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7118,13 +7121,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7175,7 +7178,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7187,13 +7190,13 @@
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7204,10 +7207,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7218,7 +7221,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7230,13 +7233,13 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7287,13 +7290,13 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
@@ -7305,7 +7308,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7316,14 +7319,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7342,16 +7345,16 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7401,7 +7404,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7413,13 +7416,13 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7430,14 +7433,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7450,25 +7453,25 @@
         <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7517,7 +7520,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7529,13 +7532,13 @@
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7546,10 +7549,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7557,10 +7560,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7572,13 +7575,13 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7605,13 +7608,13 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -7629,25 +7632,25 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7658,10 +7661,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7672,7 +7675,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7684,13 +7687,13 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7717,13 +7720,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7741,25 +7744,25 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7770,10 +7773,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7784,7 +7787,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7796,13 +7799,13 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7829,13 +7832,13 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -7853,25 +7856,25 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7882,21 +7885,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -7908,13 +7911,13 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7965,25 +7968,25 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -7994,10 +7997,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8020,16 +8023,16 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8079,7 +8082,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8091,13 +8094,13 @@
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8108,10 +8111,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8134,19 +8137,19 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8171,13 +8174,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8195,7 +8198,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8207,13 +8210,13 @@
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8224,10 +8227,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8250,17 +8253,17 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8309,7 +8312,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8321,13 +8324,13 @@
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8338,10 +8341,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8364,17 +8367,17 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8423,7 +8426,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8435,13 +8438,13 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8452,10 +8455,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8478,13 +8481,13 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8535,7 +8538,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8547,13 +8550,13 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8564,10 +8567,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8578,7 +8581,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8590,16 +8593,16 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8649,25 +8652,25 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -8678,10 +8681,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8704,16 +8707,16 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8763,7 +8766,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8775,13 +8778,13 @@
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -8792,10 +8795,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8806,7 +8809,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -8818,13 +8821,13 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8875,13 +8878,13 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
@@ -8893,7 +8896,7 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -8904,14 +8907,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8930,16 +8933,16 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8989,7 +8992,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9001,13 +9004,13 @@
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9018,14 +9021,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9038,25 +9041,25 @@
         <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9105,7 +9108,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9117,13 +9120,13 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -9134,10 +9137,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9145,10 +9148,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9160,16 +9163,16 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9219,25 +9222,25 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9248,10 +9251,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9259,10 +9262,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -9274,16 +9277,16 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9333,25 +9336,25 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
